--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3526.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3526.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.687829059550226</v>
+        <v>1.480748653411865</v>
       </c>
       <c r="B1">
-        <v>2.492854716433439</v>
+        <v>1.871488451957703</v>
       </c>
       <c r="C1">
-        <v>2.82725116018477</v>
+        <v>1.997957706451416</v>
       </c>
       <c r="D1">
-        <v>3.316972748164982</v>
+        <v>1.586897253990173</v>
       </c>
       <c r="E1">
-        <v>2.295732891856832</v>
+        <v>1.389355301856995</v>
       </c>
     </row>
   </sheetData>
